--- a/experiments_hie/2_results.xlsx
+++ b/experiments_hie/2_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\QRS\benchmarks\upload\experiments_hie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6286D9-2684-4BDD-865F-A913ACA5C587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC2742-369F-4121-A225-4310E1CF4AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10908" yWindow="2412" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,51 +351,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sldv_model.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sldv_model_fixed.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TrafficLightController.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TrafficLightController_m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TokenRing_h_m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MalikCyclic_h_m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CountDown_h_m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetCar_h.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCControl_h.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOnOff_h.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOnOff_h_m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Driver_h.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,14 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RailroadControl_h.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleTrafficLight_h_m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO CX</t>
   </si>
   <si>
@@ -432,19 +384,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IfThenElseSR_h.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ACCActive.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MalikAcyclic_h_m.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CompositeActor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_IfThenElseSR.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenRingMAC.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_MalikCyclic_m.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_MalikAcyclic_m.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_CountDown_m.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sldv.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sldv_fixed.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_TargetCar.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_ACCOnOff.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_Driver.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_RailroadControl.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_SimpleTrafficLight_m.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchical_ACCControl.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCSwitch.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,21 +548,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -573,12 +558,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -588,7 +567,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,14 +856,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:N45"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
@@ -894,46 +873,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -980,14 +959,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>47</v>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1024,9 +1003,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1062,13 +1041,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1104,9 +1083,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1142,13 +1121,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1184,9 +1163,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1222,413 +1201,413 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="2">
         <v>0.33</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="2">
         <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
         <v>0.21</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="2">
         <v>0.21</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="8">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="2">
         <v>0.22</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2">
         <v>0.22</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
         <v>0.18</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="1">
         <v>0.18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="1">
         <v>0.3</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="9">
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
         <v>0.24</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="9">
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1">
         <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="8">
         <v>7</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="1">
         <v>0.67</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="9">
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1">
         <v>0.67</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1">
         <v>15.61</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="9">
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="1">
         <v>15.61</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="9">
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1">
         <v>5.61</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="9">
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="1">
         <v>5.61</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="8">
         <v>9</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="15"/>
+      <c r="B20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1664,9 +1643,9 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1702,185 +1681,185 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="8">
         <v>10</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="1">
         <v>0.2</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="9">
+      <c r="J22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1">
         <v>0.21</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="9">
+      <c r="J23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1">
         <v>0.21</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>11</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="6" t="s">
+      <c r="A24" s="8">
+        <v>11</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="1">
         <v>0.54</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="9">
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1">
         <v>0.54</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="6" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1">
         <v>0.62</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="9">
+      <c r="J25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="1">
         <v>0.62</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>12</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="A26" s="8">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -1889,16 +1868,16 @@
       <c r="I26" s="1">
         <v>0.23</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="10" t="s">
+      <c r="J26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N26" s="1">
@@ -1906,37 +1885,37 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="10" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1">
         <v>0.26</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="10" t="s">
+      <c r="J27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N27" s="1">
@@ -1944,283 +1923,283 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>13</v>
-      </c>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="8">
+        <v>13</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>14</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>15</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="6" t="s">
+      <c r="I32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>14</v>
-      </c>
-      <c r="B30" s="16" t="s">
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>16</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="6" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>15</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N33" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>16</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="1">
         <v>0.2</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="6" t="s">
+      <c r="J34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N34" s="1">
@@ -2228,37 +2207,37 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="6" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="1">
         <v>0.36</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="6" t="s">
+      <c r="J35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N35" s="1">
@@ -2266,22 +2245,22 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="8">
         <v>17</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>43</v>
+      <c r="B36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -2310,16 +2289,16 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2348,20 +2327,20 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="8">
         <v>18</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="14"/>
+      <c r="B38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="12"/>
       <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2390,20 +2369,20 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>41</v>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>13</v>
@@ -2428,13 +2407,13 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="8">
         <v>19</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="14"/>
+      <c r="B40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
@@ -2470,9 +2449,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
@@ -2508,13 +2487,13 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+      <c r="A42" s="8">
         <v>20</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="14"/>
+      <c r="B42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
@@ -2550,9 +2529,9 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
@@ -2588,53 +2567,62 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="10"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C4:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="B45:N45"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2651,28 +2639,19 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C4:C25"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
